--- a/examples/puerto_rico_stoch/data/data_W.xlsx
+++ b/examples/puerto_rico_stoch/data/data_W.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="217">
   <si>
     <t>connection</t>
   </si>
@@ -6565,7 +6565,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6660,15 +6660,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2041</v>
-      </c>
-      <c r="B8" s="3">
-        <v>65.41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/puerto_rico_stoch/data/data_W.xlsx
+++ b/examples/puerto_rico_stoch/data/data_W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="223">
   <si>
     <t>connection</t>
   </si>
@@ -543,9 +543,6 @@
     <t>https://www.nrel.gov/docs/fy11osti/48595.pdf, "NREL-SEAC" for Capacity factors and lifetime</t>
   </si>
   <si>
-    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/table_8.2.pdf, 2018</t>
-  </si>
-  <si>
     <t>NREL - Energy Snapshot Puerto Rico, https://www.nrel.gov/docs/fy15osti/62708.pdf</t>
   </si>
   <si>
@@ -685,6 +682,27 @@
   </si>
   <si>
     <t>MSW_LF_TAXED</t>
+  </si>
+  <si>
+    <t>EC_COAL</t>
+  </si>
+  <si>
+    <t>EC_OIL</t>
+  </si>
+  <si>
+    <t>EC_DSL_CC</t>
+  </si>
+  <si>
+    <t>ATB</t>
+  </si>
+  <si>
+    <t>EC_DSL</t>
+  </si>
+  <si>
+    <t>EC_OIL_CC</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/table_8.2.pdf, 2019</t>
   </si>
 </sst>
 </file>
@@ -759,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -800,12 +818,21 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1089,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1304,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,7 +1312,7 @@
         <v>144</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,7 +1320,7 @@
         <v>145</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,15 +1328,15 @@
         <v>146</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1344,7 @@
         <v>147</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,7 +1352,15 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1386,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C26" sqref="C26:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1419,7 @@
         <v>129</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,7 +1453,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>106</v>
@@ -1444,7 +1479,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>106</v>
@@ -1470,7 +1505,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>106</v>
@@ -1496,7 +1531,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>106</v>
@@ -1522,7 +1557,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>106</v>
@@ -1548,7 +1583,7 @@
         <v>112</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>106</v>
@@ -1600,7 +1635,7 @@
         <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>106</v>
@@ -1626,7 +1661,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>106</v>
@@ -1756,7 +1791,7 @@
         <v>120</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>106</v>
@@ -1782,7 +1817,7 @@
         <v>121</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>106</v>
@@ -1909,10 +1944,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>103</v>
@@ -1938,7 +1973,7 @@
         <v>134</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>103</v>
@@ -2012,16 +2047,90 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:H25">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:H28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2033,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2440,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2339,13 +2448,13 @@
         <v>9271</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="6">
         <v>30</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2356,7 +2465,7 @@
         <v>33.4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2364,13 +2473,13 @@
         <v>9271</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="6">
         <v>25</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2385,7 +2494,7 @@
         <v>90</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -2393,7 +2502,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,7 +2513,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2412,13 +2521,13 @@
         <v>13500</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H15" s="24">
         <v>45</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,7 +2538,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="23">
         <v>62.02</v>
@@ -2443,18 +2552,18 @@
         <v>55</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="30">
         <v>30</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" s="23">
         <v>42.47</v>
@@ -2468,7 +2577,7 @@
         <v>55</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2479,7 +2588,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -2487,13 +2596,13 @@
         <v>9271</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="23">
         <v>30</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2504,7 +2613,7 @@
         <v>33.4</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -2512,13 +2621,13 @@
         <v>9271</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="23">
         <v>25</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2533,7 +2642,7 @@
         <v>90</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2541,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2552,7 +2661,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2560,24 +2669,24 @@
         <v>13500</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="9">
         <v>45</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="10">
         <v>87</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="9">
         <v>54.17</v>
@@ -2591,18 +2700,18 @@
         <v>55</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="30">
         <v>30</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="9">
         <v>37.6</v>
@@ -2616,7 +2725,7 @@
         <v>55</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2627,7 +2736,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2635,13 +2744,13 @@
         <v>9271</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="9">
         <v>30</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2652,7 +2761,7 @@
         <v>33.4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -2660,13 +2769,82 @@
         <v>9271</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H25" s="9">
         <v>25</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="6">
+        <v>85</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="6">
+        <v>8800</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="6">
+        <v>75</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="6">
+        <v>85</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6600</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="6">
+        <v>55</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="6">
+        <v>85</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="6">
+        <v>6600</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="6">
+        <v>55</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2677,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,19 +3039,19 @@
         <v>3885</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="13">
         <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2924,13 +3102,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2943,13 +3121,13 @@
         <v>50</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="28">
         <v>0</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2960,19 +3138,19 @@
         <v>1950</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="24">
         <v>36.32</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F14" s="24">
         <v>2.0169999999999999</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,19 +3161,19 @@
         <v>3760</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="24">
         <v>110</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="24">
         <v>1.389</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3012,16 +3190,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F16" s="24">
         <v>0.83299999999999996</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>121</v>
       </c>
@@ -3035,16 +3213,16 @@
         <v>12</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F17" s="24">
         <v>1.944</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -3052,22 +3230,22 @@
         <v>951</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="24">
         <v>8</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" s="24">
         <v>0</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>123</v>
       </c>
@@ -3075,22 +3253,22 @@
         <v>1628</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="24">
         <v>50</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F19" s="24">
         <v>0</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>132</v>
       </c>
@@ -3098,22 +3276,22 @@
         <v>1950</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="7">
         <v>36.32</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" s="28">
         <v>2.0169999999999999</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>133</v>
       </c>
@@ -3121,24 +3299,24 @@
         <v>3760</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="7">
         <v>110</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21" s="28">
         <v>1.389</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="7">
         <v>860.9</v>
@@ -3150,16 +3328,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22" s="28">
         <v>0.83299999999999996</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>134</v>
       </c>
@@ -3173,16 +3351,16 @@
         <v>12</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" s="28">
         <v>1.944</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>135</v>
       </c>
@@ -3190,22 +3368,22 @@
         <v>951</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="7">
         <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>136</v>
       </c>
@@ -3213,19 +3391,72 @@
         <v>1628</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="7">
         <v>50</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="31">
+        <v>3634</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="7">
+        <v>33</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.389</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="7">
+        <v>952</v>
+      </c>
+      <c r="D27" s="7">
+        <v>11.33</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="7">
+        <v>952</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11.33</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3236,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3502,7 +3733,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -3530,6 +3761,21 @@
       </c>
       <c r="F25" s="3">
         <v>75.239999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3789,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,7 +4237,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
@@ -4022,7 +4268,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4039,7 +4285,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4056,7 +4302,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4073,7 +4319,7 @@
         <v>84</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4090,7 +4336,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4107,7 +4353,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4124,7 +4370,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4141,7 +4387,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4158,7 +4404,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11">
         <v>0.96259337132800005</v>
@@ -4430,7 +4676,7 @@
         <v>85</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4447,7 +4693,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4464,7 +4710,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4481,7 +4727,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4498,7 +4744,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4515,7 +4761,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4532,7 +4778,7 @@
         <v>85</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4549,7 +4795,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34">
         <v>6.8030477198100002E-3</v>
@@ -4566,7 +4812,7 @@
         <v>85</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35">
         <v>0.62784163046800001</v>
@@ -4838,7 +5084,7 @@
         <v>84</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4855,7 +5101,7 @@
         <v>84</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D52">
         <v>0.62471818120800005</v>
@@ -4872,7 +5118,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D53">
         <v>0.47888239847899999</v>
@@ -4889,7 +5135,7 @@
         <v>84</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54">
         <v>0.54757875157699998</v>
@@ -4906,7 +5152,7 @@
         <v>84</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55">
         <v>0.54985832453000005</v>
@@ -4923,7 +5169,7 @@
         <v>84</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56">
         <v>0.22189131724700001</v>
@@ -4940,7 +5186,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57">
         <v>0.33405325538000002</v>
@@ -4957,7 +5203,7 @@
         <v>84</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D58">
         <v>0.45380709599500002</v>
@@ -4974,7 +5220,7 @@
         <v>84</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59">
         <v>0.86262626114300001</v>
@@ -5246,7 +5492,7 @@
         <v>85</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -5263,7 +5509,7 @@
         <v>85</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>0.38224050632099998</v>
@@ -5280,7 +5526,7 @@
         <v>85</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D77">
         <v>0.52952256720400004</v>
@@ -5297,7 +5543,7 @@
         <v>85</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D78">
         <v>0.59106484547500004</v>
@@ -5314,7 +5560,7 @@
         <v>85</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D79">
         <v>0.54912905000599999</v>
@@ -5331,7 +5577,7 @@
         <v>85</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D80">
         <v>0.53918644940500005</v>
@@ -5348,7 +5594,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D81">
         <v>0.468058436849</v>
@@ -5365,7 +5611,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D82">
         <v>0.480675317815</v>
@@ -5382,7 +5628,7 @@
         <v>85</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D83">
         <v>0.68255839241500005</v>
@@ -5669,10 +5915,10 @@
         <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5683,7 +5929,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5732,10 +5978,10 @@
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5746,12 +5992,12 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>3.9199999999999999E-2</v>
@@ -5762,7 +6008,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>3.7499999999999999E-2</v>
@@ -5773,7 +6019,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>3.6400000000000002E-2</v>
@@ -5784,7 +6030,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>3.5700000000000003E-2</v>
@@ -5795,7 +6041,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>3.5700000000000003E-2</v>
@@ -5806,7 +6052,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>3.6900000000000002E-2</v>
@@ -5817,7 +6063,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>3.8600000000000002E-2</v>
@@ -5828,7 +6074,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10">
         <v>3.85E-2</v>
@@ -5839,7 +6085,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11">
         <v>4.0500000000000001E-2</v>
@@ -6024,7 +6270,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6117,7 +6363,7 @@
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>0.7</v>
@@ -6135,21 +6381,21 @@
         <v>2084.1332580463013</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J3">
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
         <v>199</v>
-      </c>
-      <c r="B4" t="s">
-        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -6166,24 +6412,24 @@
         <v>688.39634941329859</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -6201,21 +6447,21 @@
         <v>323.88212908717634</v>
       </c>
       <c r="I5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
         <v>205</v>
-      </c>
-      <c r="B6" t="s">
-        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>105</v>
@@ -6224,25 +6470,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H6">
         <v>539.80354847862725</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6253,7 +6499,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6262,47 +6508,47 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H8">
         <v>4531.3620000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J8">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
         <v>103</v>
@@ -6314,36 +6560,36 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H9">
         <v>7746.9369999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J9">
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -6355,18 +6601,18 @@
         <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6378,18 +6624,18 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
         <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6401,18 +6647,18 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
         <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6424,18 +6670,18 @@
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6447,7 +6693,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6509,12 +6755,12 @@
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4">
         <v>3068</v>
@@ -6523,12 +6769,12 @@
         <v>2015</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5">
         <v>2853</v>
@@ -6537,12 +6783,12 @@
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6">
         <v>2853</v>
@@ -6551,7 +6797,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6564,8 +6810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6649,15 +6895,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2036</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65.47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -6768,7 +7006,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6800,13 +7038,13 @@
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6833,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6862,7 +7100,7 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6891,7 +7129,7 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6905,7 +7143,7 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6925,7 +7163,7 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6954,7 +7192,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6983,7 +7221,7 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6997,7 +7235,7 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7011,7 +7249,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/examples/puerto_rico_stoch/data/data_W.xlsx
+++ b/examples/puerto_rico_stoch/data/data_W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="221">
   <si>
     <t>connection</t>
   </si>
@@ -687,16 +687,10 @@
     <t>EC_COAL</t>
   </si>
   <si>
-    <t>EC_OIL</t>
-  </si>
-  <si>
     <t>EC_DSL_CC</t>
   </si>
   <si>
     <t>ATB</t>
-  </si>
-  <si>
-    <t>EC_DSL</t>
   </si>
   <si>
     <t>EC_OIL_CC</t>
@@ -777,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -818,8 +812,6 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1304,7 +1296,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,7 +1352,7 @@
         <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1378,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:H28"/>
+      <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,21 +1780,21 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="6" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1814,21 +1806,21 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="23" t="s">
@@ -1840,25 +1832,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>130</v>
@@ -1866,16 +1858,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>106</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>131</v>
@@ -1884,105 +1876,105 @@
         <v>131</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="H20" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="F21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="F22" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G22" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>131</v>
@@ -1991,15 +1983,15 @@
         <v>130</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>103</v>
@@ -2022,16 +2014,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>131</v>
@@ -2040,7 +2032,7 @@
         <v>131</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>130</v>
@@ -2048,22 +2040,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>130</v>
+      <c r="F26" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>130</v>
@@ -2074,25 +2066,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>130</v>
+      <c r="F27" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>130</v>
@@ -2100,37 +2092,37 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>130</v>
+      <c r="F28" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H25">
+  <conditionalFormatting sqref="D3:H15 D19:H28">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:H28">
+  <conditionalFormatting sqref="D16:H18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2145,7 +2137,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2228,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="6">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>142</v>
@@ -2368,7 +2360,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="9">
-        <v>92</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>141</v>
@@ -2387,21 +2379,21 @@
         <v>114</v>
       </c>
       <c r="B10" s="9">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>18000</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="D10" s="6">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>142</v>
@@ -2426,7 +2418,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="6">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>142</v>
@@ -2442,14 +2434,14 @@
       <c r="C12" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>9271</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="D12" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>196</v>
       </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="6">
         <v>30</v>
       </c>
@@ -2462,21 +2454,21 @@
         <v>117</v>
       </c>
       <c r="B13" s="6">
-        <v>33.4</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>9271</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="D13" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>196</v>
       </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>197</v>
@@ -2491,7 +2483,7 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>197</v>
@@ -2515,14 +2507,14 @@
       <c r="C15" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23">
-        <v>13500</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>197</v>
-      </c>
+      <c r="D15" s="23">
+        <v>25.3</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="24">
         <v>45</v>
       </c>
@@ -2532,24 +2524,24 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="25">
-        <v>87</v>
+        <v>216</v>
+      </c>
+      <c r="B16" s="23">
+        <v>85</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="23">
-        <v>62.02</v>
+      <c r="D16" s="26">
+        <v>38.799999999999997</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>197</v>
@@ -2557,23 +2549,23 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="30">
-        <v>30</v>
+        <v>217</v>
+      </c>
+      <c r="B17" s="23">
+        <v>87</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="23">
-        <v>42.47</v>
+      <c r="D17" s="26">
+        <v>51.7</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>55</v>
       </c>
       <c r="I17" s="23" t="s">
@@ -2582,24 +2574,24 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="B18" s="23">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23">
-        <v>9271</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>196</v>
-      </c>
+      <c r="D18" s="26">
+        <v>51.7</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="23">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>197</v>
@@ -2607,122 +2599,122 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="25">
+        <v>87</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="23">
+        <v>62.02</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23">
+        <v>55</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="23">
+        <v>30</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="23">
+        <v>42.47</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24">
+        <v>55</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="23">
+        <v>22</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="23">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23">
+        <v>30</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="23">
-        <v>33.4</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23">
-        <v>9271</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="B22" s="23">
+        <v>31</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="23">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="23">
-        <v>25</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="6">
-        <v>50</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="9">
-        <v>90</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9">
-        <v>15</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="6">
-        <v>56</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6">
-        <v>13500</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="9">
-        <v>45</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="10">
-        <v>87</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="9">
-        <v>54.17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="6">
-        <v>55</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23">
+        <v>30</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="30">
-        <v>30</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>197</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B23" s="6">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="9">
-        <v>37.6</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>197</v>
@@ -2730,24 +2722,24 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="6">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6">
-        <v>9271</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>197</v>
@@ -2755,24 +2747,24 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="6">
-        <v>33.4</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6">
-        <v>9271</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="9">
-        <v>25</v>
+        <v>195</v>
+      </c>
+      <c r="B25" s="10">
+        <v>87</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="9">
+        <v>54.17</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="6">
+        <v>55</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>197</v>
@@ -2780,70 +2772,76 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="B26" s="6">
-        <v>85</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="6">
-        <v>8800</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="6">
-        <v>75</v>
-      </c>
-      <c r="I26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="9">
+        <v>37.6</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <v>55</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="B27" s="6">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F27" s="6">
-        <v>6600</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="6">
-        <v>55</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="D27" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <v>30</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="B28" s="6">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="6">
-        <v>6600</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="6">
-        <v>55</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="D28" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <v>30</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2855,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,6 +2867,7 @@
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3036,13 +3035,13 @@
         <v>113</v>
       </c>
       <c r="B9" s="6">
-        <v>3885</v>
+        <v>3935</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>197</v>
@@ -3099,7 +3098,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>197</v>
@@ -3118,7 +3117,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>197</v>
@@ -3135,19 +3134,19 @@
         <v>118</v>
       </c>
       <c r="B14" s="24">
-        <v>1950</v>
+        <v>1284</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>197</v>
       </c>
       <c r="D14" s="24">
-        <v>36.32</v>
+        <v>32.1</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>197</v>
       </c>
       <c r="F14" s="24">
-        <v>2.0169999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>197</v>
@@ -3158,19 +3157,19 @@
         <v>119</v>
       </c>
       <c r="B15" s="24">
-        <v>3760</v>
+        <v>3749</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>197</v>
       </c>
       <c r="D15" s="24">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>197</v>
       </c>
       <c r="F15" s="24">
-        <v>1.389</v>
+        <v>1.67</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>197</v>
@@ -3178,22 +3177,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="27">
-        <v>612.6</v>
+        <v>216</v>
+      </c>
+      <c r="B16" s="24">
+        <v>3644</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="27">
-        <v>10</v>
+        <v>197</v>
+      </c>
+      <c r="D16" s="24">
+        <v>33</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>197</v>
       </c>
       <c r="F16" s="24">
-        <v>0.83299999999999996</v>
+        <v>1.39</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>197</v>
@@ -3201,160 +3200,156 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="B17" s="24">
-        <v>188.3</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>150</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="C17" s="26"/>
       <c r="D17" s="24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>197</v>
       </c>
       <c r="F17" s="24">
-        <v>1.944</v>
+        <v>11.33</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="B18" s="24">
-        <v>951</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>197</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="C18" s="26"/>
       <c r="D18" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>197</v>
       </c>
       <c r="F18" s="24">
-        <v>0</v>
+        <v>11.33</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="27">
+        <v>612.6</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="27">
+        <v>11</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="24">
+        <v>188.3</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="24">
+        <v>12</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1.944</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="24">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="24">
+        <v>13</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="24">
-        <v>1628</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="24">
-        <v>50</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="B22" s="24">
+        <v>1494</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="24">
+        <v>42</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="24">
         <v>0</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1950</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="7">
-        <v>36.32</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="28">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="7">
-        <v>3760</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="7">
-        <v>110</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="28">
-        <v>1.389</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="7">
-        <v>860.9</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="7">
-        <v>10</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="28">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="23" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="7">
-        <v>305.2</v>
+        <v>1284</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7">
-        <v>12</v>
+        <v>32.1</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F23" s="28">
-        <v>1.944</v>
+        <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>197</v>
@@ -3362,102 +3357,124 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="7">
-        <v>951</v>
-      </c>
-      <c r="C24" s="6" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>197</v>
       </c>
       <c r="D24" s="7">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="28">
+        <v>1.67</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="B25" s="7">
-        <v>1628</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>197</v>
+        <v>860.9</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="D25" s="7">
-        <v>50</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="28">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="31">
-        <v>3634</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>197</v>
+        <v>134</v>
+      </c>
+      <c r="B26" s="7">
+        <v>305.2</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="D26" s="7">
-        <v>33</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1.389</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="28">
+        <v>1.944</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="B27" s="7">
-        <v>952</v>
+        <v>1060</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D27" s="7">
-        <v>11.33</v>
+        <v>13</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="B28" s="7">
-        <v>952</v>
+        <v>1494</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D28" s="7">
-        <v>11.33</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>197</v>
       </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3470,7 +3487,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,12 +3682,12 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="23">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="26"/>
@@ -3680,10 +3697,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -3691,91 +3712,117 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+        <v>219</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="26">
-        <v>738</v>
-      </c>
+      <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+        <v>120</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>137</v>
+      </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="26">
-        <v>75.239999999999995</v>
-      </c>
+      <c r="F19" s="26"/>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21">
-        <v>290</v>
-      </c>
-      <c r="E21" t="s">
-        <v>144</v>
-      </c>
+      <c r="A21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26">
+        <v>205</v>
+      </c>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="A22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26">
+        <v>20.9</v>
+      </c>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24">
-        <v>738</v>
+        <v>133</v>
+      </c>
+      <c r="D24">
+        <v>290</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="3">
-        <v>75.239999999999995</v>
+        <v>195</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>220</v>
+        <v>135</v>
+      </c>
+      <c r="F27">
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>217</v>
+        <v>136</v>
+      </c>
+      <c r="F28" s="3">
+        <v>20.9</v>
       </c>
     </row>
   </sheetData>
@@ -3789,7 +3836,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6270,7 +6317,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H3" activeCellId="1" sqref="H5:H6 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6377,7 +6424,7 @@
       <c r="G3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2084.1332580463013</v>
       </c>
       <c r="I3" t="s">
@@ -6443,7 +6490,7 @@
       <c r="G5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>323.88212908717634</v>
       </c>
       <c r="I5" t="s">
@@ -6478,7 +6525,7 @@
       <c r="G6" t="s">
         <v>185</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>539.80354847862725</v>
       </c>
       <c r="I6" t="s">
@@ -6594,7 +6641,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="J10">
@@ -6617,7 +6664,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="J11">
@@ -6640,7 +6687,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="J12">
@@ -6663,7 +6710,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="J13">
@@ -6686,7 +6733,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="J14">
@@ -6810,8 +6857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6895,7 +6942,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="A7">
+        <v>2036</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65.47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -6954,7 +7009,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7058,7 +7113,7 @@
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1.65</v>
+        <v>2.66</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -7079,13 +7134,13 @@
         <v>99</v>
       </c>
       <c r="B4">
-        <v>4.0282227613315982</v>
+        <v>4.03</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="E4" t="s">
         <v>93</v>
@@ -7108,13 +7163,13 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>11.456075969803004</v>
+        <v>11.46</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
       </c>
       <c r="D5">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="E5" t="s">
         <v>93</v>
@@ -7171,13 +7226,13 @@
         <v>126</v>
       </c>
       <c r="B8">
-        <v>7.1933632529058906</v>
+        <v>7.19</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="E8" t="s">
         <v>93</v>
@@ -7200,13 +7255,13 @@
         <v>95</v>
       </c>
       <c r="B9">
-        <v>7.6232741423376043</v>
+        <v>7.62</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>93</v>

--- a/examples/puerto_rico_stoch/data/data_W.xlsx
+++ b/examples/puerto_rico_stoch/data/data_W.xlsx
@@ -6317,7 +6317,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" activeCellId="1" sqref="H5:H6 H3"/>
+      <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/puerto_rico_stoch/data/data_W.xlsx
+++ b/examples/puerto_rico_stoch/data/data_W.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="221">
   <si>
     <t>connection</t>
   </si>
@@ -6858,7 +6858,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6953,7 +6953,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="A8">
+        <v>2041</v>
+      </c>
+      <c r="B8" s="3">
+        <v>65.41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
